--- a/Code/Results/Cases/Case_7_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_29/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.41277401770623</v>
+        <v>19.72951314293001</v>
       </c>
       <c r="C2">
-        <v>14.2166669507053</v>
+        <v>11.92627835132564</v>
       </c>
       <c r="D2">
-        <v>4.318222597928564</v>
+        <v>4.242877618224962</v>
       </c>
       <c r="E2">
-        <v>6.739170550506151</v>
+        <v>7.41253359964161</v>
       </c>
       <c r="F2">
-        <v>31.99318103737248</v>
+        <v>20.74970064137496</v>
       </c>
       <c r="G2">
-        <v>2.085839627778844</v>
+        <v>2.077213291759485</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.154090341514826</v>
+        <v>6.144930917026739</v>
       </c>
       <c r="M2">
-        <v>13.55884934976474</v>
+        <v>11.82739694902106</v>
       </c>
       <c r="N2">
-        <v>13.12440090565238</v>
+        <v>12.18138524958077</v>
       </c>
       <c r="O2">
-        <v>25.14279539583557</v>
+        <v>16.46537352868579</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.90617638962165</v>
+        <v>18.38835636535589</v>
       </c>
       <c r="C3">
-        <v>13.32547006902756</v>
+        <v>11.48243754768152</v>
       </c>
       <c r="D3">
-        <v>4.414052199166981</v>
+        <v>4.154946508115895</v>
       </c>
       <c r="E3">
-        <v>6.753933145936078</v>
+        <v>7.509448812111735</v>
       </c>
       <c r="F3">
-        <v>30.73058295762183</v>
+        <v>20.11556808726458</v>
       </c>
       <c r="G3">
-        <v>2.095550456047112</v>
+        <v>2.082814247969409</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.077484565031706</v>
+        <v>6.061480361085623</v>
       </c>
       <c r="M3">
-        <v>12.96256702926688</v>
+        <v>11.29221828141735</v>
       </c>
       <c r="N3">
-        <v>13.38875457197687</v>
+        <v>12.36878547897493</v>
       </c>
       <c r="O3">
-        <v>24.35633462378004</v>
+        <v>16.19389360065004</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.94283915321633</v>
+        <v>17.5163067375013</v>
       </c>
       <c r="C4">
-        <v>12.75157669553528</v>
+        <v>11.20058297670824</v>
       </c>
       <c r="D4">
-        <v>4.473450362295858</v>
+        <v>4.099713827861827</v>
       </c>
       <c r="E4">
-        <v>6.763843485363373</v>
+        <v>7.571378638612495</v>
       </c>
       <c r="F4">
-        <v>29.96473248779987</v>
+        <v>19.736600575462</v>
       </c>
       <c r="G4">
-        <v>2.101661227146177</v>
+        <v>2.086362363610866</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.033380293650734</v>
+        <v>6.012512681746662</v>
       </c>
       <c r="M4">
-        <v>12.59182986282798</v>
+        <v>10.95486821260923</v>
       </c>
       <c r="N4">
-        <v>13.55408729658065</v>
+        <v>12.48703985887499</v>
       </c>
       <c r="O4">
-        <v>23.88835646491609</v>
+        <v>16.04105269648151</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.54080575325469</v>
+        <v>17.14865027554978</v>
       </c>
       <c r="C5">
-        <v>12.51097215284615</v>
+        <v>11.08348192526049</v>
       </c>
       <c r="D5">
-        <v>4.497820850674239</v>
+        <v>4.076911278774894</v>
       </c>
       <c r="E5">
-        <v>6.768088311909068</v>
+        <v>7.59722486226238</v>
       </c>
       <c r="F5">
-        <v>29.65530065093143</v>
+        <v>19.58496165267401</v>
       </c>
       <c r="G5">
-        <v>2.104190724716351</v>
+        <v>2.087836334637396</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.016137375355502</v>
+        <v>5.993138114734667</v>
       </c>
       <c r="M5">
-        <v>12.43977609928016</v>
+        <v>10.81538043561338</v>
       </c>
       <c r="N5">
-        <v>13.62225582946819</v>
+        <v>12.5360418387065</v>
       </c>
       <c r="O5">
-        <v>23.70149096364857</v>
+        <v>15.98221872746261</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.47348281898265</v>
+        <v>17.08685680172267</v>
       </c>
       <c r="C6">
-        <v>12.47061260164301</v>
+        <v>11.06390522569666</v>
       </c>
       <c r="D6">
-        <v>4.501878226158842</v>
+        <v>4.073107663881999</v>
       </c>
       <c r="E6">
-        <v>6.768805445817192</v>
+        <v>7.601553413261687</v>
       </c>
       <c r="F6">
-        <v>29.60408963627225</v>
+        <v>19.55995606391831</v>
       </c>
       <c r="G6">
-        <v>2.104613176486113</v>
+        <v>2.088082801132314</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.013318061313412</v>
+        <v>5.989956263931269</v>
       </c>
       <c r="M6">
-        <v>12.41447476632951</v>
+        <v>10.79210283155592</v>
       </c>
       <c r="N6">
-        <v>13.63362412797102</v>
+        <v>12.54422794699844</v>
       </c>
       <c r="O6">
-        <v>23.67069664768907</v>
+        <v>15.97265657118547</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.93745525175717</v>
+        <v>17.5113982506485</v>
       </c>
       <c r="C7">
-        <v>12.74835912177881</v>
+        <v>11.19901264519223</v>
       </c>
       <c r="D7">
-        <v>4.473778330527899</v>
+        <v>4.099407474227656</v>
       </c>
       <c r="E7">
-        <v>6.763899905356917</v>
+        <v>7.571724742562933</v>
       </c>
       <c r="F7">
-        <v>29.96054819973737</v>
+        <v>19.73454397266305</v>
       </c>
       <c r="G7">
-        <v>2.101695179102352</v>
+        <v>2.086382127544867</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.03314480428361</v>
+        <v>6.012249029423039</v>
       </c>
       <c r="M7">
-        <v>12.58978289522926</v>
+        <v>10.95299492586415</v>
       </c>
       <c r="N7">
-        <v>13.55500338038496</v>
+        <v>12.48769741381268</v>
       </c>
       <c r="O7">
-        <v>23.88582066506585</v>
+        <v>16.04024532413886</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.90131861090646</v>
+        <v>19.27711824419945</v>
       </c>
       <c r="C8">
-        <v>13.91490133398348</v>
+        <v>11.77523773594153</v>
       </c>
       <c r="D8">
-        <v>4.351164270590258</v>
+        <v>4.212827185588578</v>
       </c>
       <c r="E8">
-        <v>6.744080972049976</v>
+        <v>7.4454468134352</v>
       </c>
       <c r="F8">
-        <v>31.55605480036686</v>
+        <v>20.52900284993063</v>
       </c>
       <c r="G8">
-        <v>2.089158408277904</v>
+        <v>2.079122257160502</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.127063839764858</v>
+        <v>6.115691483254241</v>
       </c>
       <c r="M8">
-        <v>13.35431189419524</v>
+        <v>11.6447857916087</v>
       </c>
       <c r="N8">
-        <v>13.21494506397329</v>
+        <v>12.24534492487972</v>
       </c>
       <c r="O8">
-        <v>24.86858063653884</v>
+        <v>16.3688769999792</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.64126152166111</v>
+        <v>22.35773392262599</v>
       </c>
       <c r="C9">
-        <v>15.99283993824324</v>
+        <v>12.82725856853693</v>
       </c>
       <c r="D9">
-        <v>4.113926395791498</v>
+        <v>4.424658476858662</v>
       </c>
       <c r="E9">
-        <v>6.712263502290453</v>
+        <v>7.217065856927227</v>
       </c>
       <c r="F9">
-        <v>34.74862089396293</v>
+        <v>22.16163595910748</v>
       </c>
       <c r="G9">
-        <v>2.065650850184472</v>
+        <v>2.065720351218638</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.334831311131375</v>
+        <v>6.336127990131422</v>
       </c>
       <c r="M9">
-        <v>14.81030886353843</v>
+        <v>12.92517579159174</v>
       </c>
       <c r="N9">
-        <v>12.57039488007732</v>
+        <v>11.79494372872083</v>
       </c>
       <c r="O9">
-        <v>26.91075900094991</v>
+        <v>17.12411247968111</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.20730541987886</v>
+        <v>24.39312910008002</v>
       </c>
       <c r="C10">
-        <v>17.39602982882425</v>
+        <v>13.54835759978998</v>
       </c>
       <c r="D10">
-        <v>3.939712160640689</v>
+        <v>4.572945068035867</v>
       </c>
       <c r="E10">
-        <v>6.693727401283671</v>
+        <v>7.061068797596571</v>
       </c>
       <c r="F10">
-        <v>37.12294356626315</v>
+        <v>23.39696324251728</v>
       </c>
       <c r="G10">
-        <v>2.048883579186579</v>
+        <v>2.056336965192981</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.502358113816824</v>
+        <v>6.508192317910553</v>
       </c>
       <c r="M10">
-        <v>15.99666670490265</v>
+        <v>14.03765338511448</v>
       </c>
       <c r="N10">
-        <v>12.10807724692392</v>
+        <v>11.47856180380179</v>
       </c>
       <c r="O10">
-        <v>28.47844458352101</v>
+        <v>17.74715620662054</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.32655597383471</v>
+        <v>25.27069273807064</v>
       </c>
       <c r="C11">
-        <v>18.0088683384059</v>
+        <v>13.86448089808025</v>
       </c>
       <c r="D11">
-        <v>3.860009713318826</v>
+        <v>4.638642439333786</v>
       </c>
       <c r="E11">
-        <v>6.686494153884981</v>
+        <v>6.992688971785905</v>
       </c>
       <c r="F11">
-        <v>38.20854255356388</v>
+        <v>23.96495998215229</v>
       </c>
       <c r="G11">
-        <v>2.041326692330127</v>
+        <v>2.052157920579885</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.581931342688526</v>
+        <v>6.588531388289311</v>
       </c>
       <c r="M11">
-        <v>16.60479477871388</v>
+        <v>14.52384056647115</v>
       </c>
       <c r="N11">
-        <v>11.89966972574534</v>
+        <v>11.33766176380947</v>
       </c>
       <c r="O11">
-        <v>29.20628231846323</v>
+        <v>18.04539814724864</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.74371296571349</v>
+        <v>25.59614333066136</v>
       </c>
       <c r="C12">
-        <v>18.23740130392533</v>
+        <v>13.98243389668175</v>
       </c>
       <c r="D12">
-        <v>3.829720226960685</v>
+        <v>4.663254873981439</v>
       </c>
       <c r="E12">
-        <v>6.683942526090256</v>
+        <v>6.967170453685928</v>
       </c>
       <c r="F12">
-        <v>38.62045528884765</v>
+        <v>24.18079162260795</v>
       </c>
       <c r="G12">
-        <v>2.03847164395797</v>
+        <v>2.050587340969797</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.612560433894159</v>
+        <v>6.6192398440934</v>
       </c>
       <c r="M12">
-        <v>16.83134048060996</v>
+        <v>14.70429827356802</v>
       </c>
       <c r="N12">
-        <v>11.82098189416249</v>
+        <v>11.28473268714083</v>
       </c>
       <c r="O12">
-        <v>29.48406424669977</v>
+        <v>18.16045886068656</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.654163767252</v>
+        <v>25.52635554025148</v>
       </c>
       <c r="C13">
-        <v>18.18833763015813</v>
+        <v>13.95710930008067</v>
       </c>
       <c r="D13">
-        <v>3.836249140761439</v>
+        <v>4.65796615617374</v>
       </c>
       <c r="E13">
-        <v>6.684483461475424</v>
+        <v>6.972649553349831</v>
       </c>
       <c r="F13">
-        <v>38.53170470583051</v>
+        <v>24.13427709510027</v>
       </c>
       <c r="G13">
-        <v>2.039086298451554</v>
+        <v>2.050925078243882</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.60594159935146</v>
+        <v>6.612613690082799</v>
       </c>
       <c r="M13">
-        <v>16.78271369116954</v>
+        <v>14.66559513866904</v>
       </c>
       <c r="N13">
-        <v>11.83791909370939</v>
+        <v>11.29611305165726</v>
       </c>
       <c r="O13">
-        <v>29.42414123184262</v>
+        <v>18.13558417972933</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.36100814814855</v>
+        <v>25.29760479352193</v>
       </c>
       <c r="C14">
-        <v>18.02773993599599</v>
+        <v>13.87422037132401</v>
       </c>
       <c r="D14">
-        <v>3.857520203534234</v>
+        <v>4.640672714146415</v>
       </c>
       <c r="E14">
-        <v>6.686280378107204</v>
+        <v>6.990581997968532</v>
       </c>
       <c r="F14">
-        <v>38.242413971953</v>
+        <v>23.98270231416518</v>
       </c>
       <c r="G14">
-        <v>2.041091695862821</v>
+        <v>2.052028474475511</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.58444118440342</v>
+        <v>6.591052125879139</v>
       </c>
       <c r="M14">
-        <v>16.62350690241822</v>
+        <v>14.5387598442121</v>
       </c>
       <c r="N14">
-        <v>11.89319162933699</v>
+        <v>11.33329874795642</v>
       </c>
       <c r="O14">
-        <v>29.22909171808473</v>
+        <v>18.05482175819769</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.1805794801918</v>
+        <v>25.15659718597431</v>
       </c>
       <c r="C15">
-        <v>17.92891291505057</v>
+        <v>13.82321869221693</v>
       </c>
       <c r="D15">
-        <v>3.87053394086528</v>
+        <v>4.63004501458595</v>
       </c>
       <c r="E15">
-        <v>6.687405941509182</v>
+        <v>7.001615162583021</v>
       </c>
       <c r="F15">
-        <v>38.06532407661892</v>
+        <v>23.889951896037</v>
       </c>
       <c r="G15">
-        <v>2.042320803483356</v>
+        <v>2.052705861762653</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.571336634152829</v>
+        <v>6.577881940549797</v>
       </c>
       <c r="M15">
-        <v>16.52550566323877</v>
+        <v>14.46059543170464</v>
       </c>
       <c r="N15">
-        <v>11.92707656682618</v>
+        <v>11.35613140652514</v>
       </c>
       <c r="O15">
-        <v>29.10990272095163</v>
+        <v>18.00562868511518</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.13321184086541</v>
+        <v>24.33481287361656</v>
       </c>
       <c r="C16">
-        <v>17.35547718251198</v>
+        <v>13.52745461996591</v>
       </c>
       <c r="D16">
-        <v>3.944908243418277</v>
+        <v>4.568615075845053</v>
       </c>
       <c r="E16">
-        <v>6.69422546681864</v>
+        <v>7.065589884925481</v>
       </c>
       <c r="F16">
-        <v>37.05210846353521</v>
+        <v>23.35995367767206</v>
       </c>
       <c r="G16">
-        <v>2.049378564323833</v>
+        <v>2.056611798029678</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.497226534320223</v>
+        <v>6.502982564000676</v>
       </c>
       <c r="M16">
-        <v>15.95639277882193</v>
+        <v>14.00536665256635</v>
       </c>
       <c r="N16">
-        <v>12.12173186176838</v>
+        <v>11.48783008517641</v>
       </c>
       <c r="O16">
-        <v>28.43117769351306</v>
+        <v>17.7279629007437</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.47853250770644</v>
+        <v>23.8183538280168</v>
       </c>
       <c r="C17">
-        <v>16.99725196764437</v>
+        <v>13.34292876745398</v>
       </c>
       <c r="D17">
-        <v>3.990389609103575</v>
+        <v>4.530469823995211</v>
       </c>
       <c r="E17">
-        <v>6.6987260476079</v>
+        <v>7.105500578894346</v>
       </c>
       <c r="F17">
-        <v>36.43193826875123</v>
+        <v>23.03626814826455</v>
       </c>
       <c r="G17">
-        <v>2.053723943320584</v>
+        <v>2.059030241162754</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.452632247284143</v>
+        <v>6.457555157141426</v>
       </c>
       <c r="M17">
-        <v>15.60044358743783</v>
+        <v>13.719549780246</v>
       </c>
       <c r="N17">
-        <v>12.24160403287808</v>
+        <v>11.5693913674865</v>
       </c>
       <c r="O17">
-        <v>28.01858678325085</v>
+        <v>17.56141362868609</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.09743936586731</v>
+        <v>23.5167440259278</v>
       </c>
       <c r="C18">
-        <v>16.78880317185219</v>
+        <v>13.23567547648786</v>
       </c>
       <c r="D18">
-        <v>4.016509610241408</v>
+        <v>4.508364817431969</v>
       </c>
       <c r="E18">
-        <v>6.701426476203348</v>
+        <v>7.128699088470499</v>
       </c>
       <c r="F18">
-        <v>36.0757445976596</v>
+        <v>22.85066749305248</v>
       </c>
       <c r="G18">
-        <v>2.056230174978991</v>
+        <v>2.060429750050566</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.427298572897415</v>
+        <v>6.431621636734286</v>
       </c>
       <c r="M18">
-        <v>15.39387118114064</v>
+        <v>13.55273553483189</v>
       </c>
       <c r="N18">
-        <v>12.31073299682365</v>
+        <v>11.61658829986639</v>
       </c>
       <c r="O18">
-        <v>27.78265208791786</v>
+        <v>17.46701406567807</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.96762166358787</v>
+        <v>23.41383894653086</v>
       </c>
       <c r="C19">
-        <v>16.71780898214398</v>
+        <v>13.19917067336019</v>
       </c>
       <c r="D19">
-        <v>4.02534781797892</v>
+        <v>4.500852534600795</v>
       </c>
       <c r="E19">
-        <v>6.702359579747526</v>
+        <v>7.136595327395627</v>
       </c>
       <c r="F19">
-        <v>35.95523193052583</v>
+        <v>22.78792917194078</v>
       </c>
       <c r="G19">
-        <v>2.057080026808312</v>
+        <v>2.060905084419272</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.418774920824384</v>
+        <v>6.422874860360503</v>
       </c>
       <c r="M19">
-        <v>15.34132075726406</v>
+        <v>13.49583825468885</v>
       </c>
       <c r="N19">
-        <v>12.33417136107786</v>
+        <v>11.63261758684692</v>
       </c>
       <c r="O19">
-        <v>27.70300427701839</v>
+        <v>17.43529183570227</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.54869242133604</v>
+        <v>23.87380269461515</v>
       </c>
       <c r="C20">
-        <v>17.03563391642936</v>
+        <v>13.36268800856144</v>
       </c>
       <c r="D20">
-        <v>3.98555244391761</v>
+        <v>4.534547610554009</v>
       </c>
       <c r="E20">
-        <v>6.698235279612801</v>
+        <v>7.101226849780392</v>
       </c>
       <c r="F20">
-        <v>36.49790353226314</v>
+        <v>23.07066652184874</v>
       </c>
       <c r="G20">
-        <v>2.053260682388751</v>
+        <v>2.058771922245556</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.457346620591585</v>
+        <v>6.46237087189609</v>
       </c>
       <c r="M20">
-        <v>15.63859794032338</v>
+        <v>13.7502256368505</v>
       </c>
       <c r="N20">
-        <v>12.22882493981221</v>
+        <v>11.56067959064056</v>
       </c>
       <c r="O20">
-        <v>28.06236508068893</v>
+        <v>17.57899874118477</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.44729432250735</v>
+        <v>25.36497998884471</v>
       </c>
       <c r="C21">
-        <v>18.07500620553298</v>
+        <v>13.89861481695798</v>
       </c>
       <c r="D21">
-        <v>3.851275669754615</v>
+        <v>4.645759525613431</v>
       </c>
       <c r="E21">
-        <v>6.685747360523283</v>
+        <v>6.985304579335376</v>
       </c>
       <c r="F21">
-        <v>38.32736278267238</v>
+        <v>24.02720420497944</v>
       </c>
       <c r="G21">
-        <v>2.040502514002536</v>
+        <v>2.051704064162524</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.590742789177027</v>
+        <v>6.59737761009523</v>
       </c>
       <c r="M21">
-        <v>16.67037007027922</v>
+        <v>14.57611317302961</v>
       </c>
       <c r="N21">
-        <v>11.87695079478484</v>
+        <v>11.32236488665393</v>
       </c>
       <c r="O21">
-        <v>29.28632303925855</v>
+        <v>18.07848608394528</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.64934113771471</v>
+        <v>26.29958719837996</v>
       </c>
       <c r="C22">
-        <v>18.73376191293159</v>
+        <v>14.23862492437331</v>
       </c>
       <c r="D22">
-        <v>3.762865875353659</v>
+        <v>4.716888899491208</v>
       </c>
       <c r="E22">
-        <v>6.678687244314804</v>
+        <v>6.911733542495983</v>
       </c>
       <c r="F22">
-        <v>39.5278732676029</v>
+        <v>24.65664953661556</v>
       </c>
       <c r="G22">
-        <v>2.032200698826679</v>
+        <v>2.047153887460368</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.680826627602651</v>
+        <v>6.68727349099196</v>
       </c>
       <c r="M22">
-        <v>17.32297439399934</v>
+        <v>15.09462084164959</v>
       </c>
       <c r="N22">
-        <v>11.64831138511819</v>
+        <v>11.16909660117942</v>
       </c>
       <c r="O22">
-        <v>30.09893545801479</v>
+        <v>18.41730111663182</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.01125146510363</v>
+        <v>25.80439621150509</v>
       </c>
       <c r="C23">
-        <v>18.38400269303938</v>
+        <v>14.05810486054742</v>
       </c>
       <c r="D23">
-        <v>3.810126904503905</v>
+        <v>4.679071945517943</v>
       </c>
       <c r="E23">
-        <v>6.682348928039565</v>
+        <v>6.95079778472926</v>
       </c>
       <c r="F23">
-        <v>38.88666293672031</v>
+        <v>24.32034531339323</v>
       </c>
       <c r="G23">
-        <v>2.036629497949699</v>
+        <v>2.049576408655753</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.632476706793879</v>
+        <v>6.639145899986552</v>
       </c>
       <c r="M23">
-        <v>16.9766035629381</v>
+        <v>14.81981372650832</v>
       </c>
       <c r="N23">
-        <v>11.77023255946769</v>
+        <v>11.25067389124347</v>
       </c>
       <c r="O23">
-        <v>29.66403707624772</v>
+        <v>18.23533962215783</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.51698780982025</v>
+        <v>23.84874887891883</v>
       </c>
       <c r="C24">
-        <v>17.01828923484162</v>
+        <v>13.3537584869334</v>
       </c>
       <c r="D24">
-        <v>3.987739409830535</v>
+        <v>4.532704586708757</v>
       </c>
       <c r="E24">
-        <v>6.698456805001856</v>
+        <v>7.103158213956666</v>
       </c>
       <c r="F24">
-        <v>36.46807954611958</v>
+        <v>23.05511347968629</v>
       </c>
       <c r="G24">
-        <v>2.053470097425392</v>
+        <v>2.058888679770869</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.455214305893787</v>
+        <v>6.460193115444017</v>
       </c>
       <c r="M24">
-        <v>15.62135660012971</v>
+        <v>13.73636485445774</v>
       </c>
       <c r="N24">
-        <v>12.2346017016003</v>
+        <v>11.56461723038106</v>
       </c>
       <c r="O24">
-        <v>28.04256896211253</v>
+        <v>17.57104430056987</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.65230858520036</v>
+        <v>21.56473692930052</v>
       </c>
       <c r="C25">
-        <v>15.45276517016733</v>
+        <v>12.55149468438378</v>
       </c>
       <c r="D25">
-        <v>4.177944775328613</v>
+        <v>4.368582052505434</v>
       </c>
       <c r="E25">
-        <v>6.720065314450055</v>
+        <v>7.27678426957951</v>
       </c>
       <c r="F25">
-        <v>33.87939378704251</v>
+        <v>21.71301491836272</v>
       </c>
       <c r="G25">
-        <v>2.071909851695132</v>
+        <v>2.069261135015634</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.276049976440816</v>
+        <v>6.274673004414836</v>
       </c>
       <c r="M25">
-        <v>14.42184961903552</v>
+        <v>12.58780430760316</v>
       </c>
       <c r="N25">
-        <v>12.74261508341736</v>
+        <v>11.91419441141433</v>
       </c>
       <c r="O25">
-        <v>26.34636833487851</v>
+        <v>16.90784389062983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.72951314293001</v>
+        <v>18.37830058424904</v>
       </c>
       <c r="C2">
-        <v>11.92627835132564</v>
+        <v>12.27539852721682</v>
       </c>
       <c r="D2">
-        <v>4.242877618224962</v>
+        <v>4.633767005641331</v>
       </c>
       <c r="E2">
-        <v>7.41253359964161</v>
+        <v>9.131177605642762</v>
       </c>
       <c r="F2">
-        <v>20.74970064137496</v>
+        <v>16.90478819739586</v>
       </c>
       <c r="G2">
-        <v>2.077213291759485</v>
+        <v>20.7886833368745</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.6957194035007</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.141912781301249</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.74913587821878</v>
       </c>
       <c r="L2">
-        <v>6.144930917026739</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>11.82739694902106</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.18138524958077</v>
+        <v>7.147507526161808</v>
       </c>
       <c r="O2">
-        <v>16.46537352868579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.53790020269728</v>
+      </c>
+      <c r="P2">
+        <v>12.24929748108693</v>
+      </c>
+      <c r="Q2">
+        <v>13.24566384869879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.38835636535589</v>
+        <v>17.1816448410919</v>
       </c>
       <c r="C3">
-        <v>11.48243754768152</v>
+        <v>11.84117392689381</v>
       </c>
       <c r="D3">
-        <v>4.154946508115895</v>
+        <v>4.43687727100008</v>
       </c>
       <c r="E3">
-        <v>7.509448812111735</v>
+        <v>9.074013121727196</v>
       </c>
       <c r="F3">
-        <v>20.11556808726458</v>
+        <v>16.41533495629704</v>
       </c>
       <c r="G3">
-        <v>2.082814247969409</v>
+        <v>20.09603531541653</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.606968378054436</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.126270679376498</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.83982903996057</v>
       </c>
       <c r="L3">
-        <v>6.061480361085623</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.29221828141735</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.36878547897493</v>
+        <v>6.98653758690841</v>
       </c>
       <c r="O3">
-        <v>16.19389360065004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.99225880533635</v>
+      </c>
+      <c r="P3">
+        <v>12.31924622971585</v>
+      </c>
+      <c r="Q3">
+        <v>13.07925898429431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.5163067375013</v>
+        <v>16.40203803157278</v>
       </c>
       <c r="C4">
-        <v>11.20058297670824</v>
+        <v>11.56500238876818</v>
       </c>
       <c r="D4">
-        <v>4.099713827861827</v>
+        <v>4.310715256434417</v>
       </c>
       <c r="E4">
-        <v>7.571378638612495</v>
+        <v>9.037978384065964</v>
       </c>
       <c r="F4">
-        <v>19.736600575462</v>
+        <v>16.11959354832284</v>
       </c>
       <c r="G4">
-        <v>2.086362363610866</v>
+        <v>19.67642337745757</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.724545689558596</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.120903476380452</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.90316623600128</v>
       </c>
       <c r="L4">
-        <v>6.012512681746662</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.95486821260923</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.48703985887499</v>
+        <v>6.885556739062992</v>
       </c>
       <c r="O4">
-        <v>16.04105269648151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.64362224270387</v>
+      </c>
+      <c r="P4">
+        <v>12.36487130235989</v>
+      </c>
+      <c r="Q4">
+        <v>12.98506394072748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.14865027554978</v>
+        <v>16.07303641829274</v>
       </c>
       <c r="C5">
-        <v>11.08348192526049</v>
+        <v>11.45015963957584</v>
       </c>
       <c r="D5">
-        <v>4.076911278774894</v>
+        <v>4.258014448978673</v>
       </c>
       <c r="E5">
-        <v>7.59722486226238</v>
+        <v>9.023050399790915</v>
       </c>
       <c r="F5">
-        <v>19.58496165267401</v>
+        <v>16.00044551260084</v>
       </c>
       <c r="G5">
-        <v>2.087836334637396</v>
+        <v>19.50710498118423</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.773489980470784</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.119756285731087</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.93083259072087</v>
       </c>
       <c r="L5">
-        <v>5.993138114734667</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>10.81538043561338</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.5360418387065</v>
+        <v>6.843898340717034</v>
       </c>
       <c r="O5">
-        <v>15.98221872746261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.4982747988048</v>
+      </c>
+      <c r="P5">
+        <v>12.3841277357414</v>
+      </c>
+      <c r="Q5">
+        <v>12.94867524083435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.08685680172267</v>
+        <v>16.01772245949701</v>
       </c>
       <c r="C6">
-        <v>11.06390522569666</v>
+        <v>11.43095436879521</v>
       </c>
       <c r="D6">
-        <v>4.073107663881999</v>
+        <v>4.24918686735626</v>
       </c>
       <c r="E6">
-        <v>7.601553413261687</v>
+        <v>9.02055667363631</v>
       </c>
       <c r="F6">
-        <v>19.55995606391831</v>
+        <v>15.98074863048367</v>
       </c>
       <c r="G6">
-        <v>2.088082801132314</v>
+        <v>19.47909848253876</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.781679764369999</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.119627849449758</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.93553672068325</v>
       </c>
       <c r="L6">
-        <v>5.989956263931269</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>10.79210283155592</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.54422794699844</v>
+        <v>6.836951273759648</v>
       </c>
       <c r="O6">
-        <v>15.97265657118547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.47394693430039</v>
+      </c>
+      <c r="P6">
+        <v>12.38736509266962</v>
+      </c>
+      <c r="Q6">
+        <v>12.94275311084421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.5113982506485</v>
+        <v>16.39764680771479</v>
       </c>
       <c r="C7">
-        <v>11.19901264519223</v>
+        <v>11.56346275019222</v>
       </c>
       <c r="D7">
-        <v>4.099407474227656</v>
+        <v>4.310009680404884</v>
       </c>
       <c r="E7">
-        <v>7.571724742562933</v>
+        <v>9.037778056871664</v>
       </c>
       <c r="F7">
-        <v>19.73454397266305</v>
+        <v>16.11798091288818</v>
       </c>
       <c r="G7">
-        <v>2.086382127544867</v>
+        <v>19.67413276622606</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.725201579457828</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.120883828268159</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.90353192756418</v>
       </c>
       <c r="L7">
-        <v>6.012249029423039</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>10.95299492586415</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.48769741381268</v>
+        <v>6.884996932916793</v>
       </c>
       <c r="O7">
-        <v>16.04024532413886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.64167508507886</v>
+      </c>
+      <c r="P7">
+        <v>12.36512832500968</v>
+      </c>
+      <c r="Q7">
+        <v>12.98456512322214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.27711824419945</v>
+        <v>17.97498600566806</v>
       </c>
       <c r="C8">
-        <v>11.77523773594153</v>
+        <v>12.12771879906927</v>
       </c>
       <c r="D8">
-        <v>4.212827185588578</v>
+        <v>4.566993637919198</v>
       </c>
       <c r="E8">
-        <v>7.4454468134352</v>
+        <v>9.111656362440696</v>
       </c>
       <c r="F8">
-        <v>20.52900284993063</v>
+        <v>16.73513026780626</v>
       </c>
       <c r="G8">
-        <v>2.079122257160502</v>
+        <v>20.54882719621741</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.634315345348271</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.135624881387656</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.77877717528497</v>
       </c>
       <c r="L8">
-        <v>6.115691483254241</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>11.6447857916087</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.24534492487972</v>
+        <v>7.092468473391003</v>
       </c>
       <c r="O8">
-        <v>16.3688769999792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.35266896418856</v>
+      </c>
+      <c r="P8">
+        <v>12.27285466150431</v>
+      </c>
+      <c r="Q8">
+        <v>13.18662757445182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.35773392262599</v>
+        <v>20.71367274829292</v>
       </c>
       <c r="C9">
-        <v>12.82725856853693</v>
+        <v>13.15452340121848</v>
       </c>
       <c r="D9">
-        <v>4.424658476858662</v>
+        <v>5.027786223527383</v>
       </c>
       <c r="E9">
-        <v>7.217065856927227</v>
+        <v>9.249500586148704</v>
       </c>
       <c r="F9">
-        <v>22.16163595910748</v>
+        <v>17.97625380545266</v>
       </c>
       <c r="G9">
-        <v>2.065720351218638</v>
+        <v>22.29872233175111</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.063277767691776</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.199252640150849</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.59801457496533</v>
       </c>
       <c r="L9">
-        <v>6.336127990131422</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>12.92517579159174</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.79494372872083</v>
+        <v>7.481024570443612</v>
       </c>
       <c r="O9">
-        <v>17.12411247968111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.63361499430783</v>
+      </c>
+      <c r="P9">
+        <v>12.11358377092589</v>
+      </c>
+      <c r="Q9">
+        <v>13.64633129468853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.39312910008002</v>
+        <v>22.47780328796847</v>
       </c>
       <c r="C10">
-        <v>13.54835759978998</v>
+        <v>13.91545366372683</v>
       </c>
       <c r="D10">
-        <v>4.572945068035867</v>
+        <v>5.354806286138661</v>
       </c>
       <c r="E10">
-        <v>7.061068797596571</v>
+        <v>9.306320103132983</v>
       </c>
       <c r="F10">
-        <v>23.39696324251728</v>
+        <v>18.81751316906271</v>
       </c>
       <c r="G10">
-        <v>2.056336965192981</v>
+        <v>23.44741205156136</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.351685741146743</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.24298100544404</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.45022575936304</v>
       </c>
       <c r="L10">
-        <v>6.508192317910553</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.03765338511448</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.47856180380179</v>
+        <v>7.659880599202334</v>
       </c>
       <c r="O10">
-        <v>17.74715620662054</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.40794913306996</v>
+      </c>
+      <c r="P10">
+        <v>12.02839600954719</v>
+      </c>
+      <c r="Q10">
+        <v>13.95856989570775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.27069273807064</v>
+        <v>22.94397492039825</v>
       </c>
       <c r="C11">
-        <v>13.86448089808025</v>
+        <v>14.77297614606463</v>
       </c>
       <c r="D11">
-        <v>4.638642439333786</v>
+        <v>5.638099197878602</v>
       </c>
       <c r="E11">
-        <v>6.992688971785905</v>
+        <v>9.159469619502623</v>
       </c>
       <c r="F11">
-        <v>23.96495998215229</v>
+        <v>18.50380158523958</v>
       </c>
       <c r="G11">
-        <v>2.052157920579885</v>
+        <v>22.71636854149362</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.136660096981352</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.04355506330301</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.88890178690199</v>
       </c>
       <c r="L11">
-        <v>6.588531388289311</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>14.52384056647115</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.33766176380947</v>
+        <v>6.978217842172752</v>
       </c>
       <c r="O11">
-        <v>18.04539814724864</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>12.95246210254472</v>
+      </c>
+      <c r="P11">
+        <v>12.16376353302554</v>
+      </c>
+      <c r="Q11">
+        <v>13.5508135371515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.59614333066136</v>
+        <v>22.97774658931088</v>
       </c>
       <c r="C12">
-        <v>13.98243389668175</v>
+        <v>15.35803990343766</v>
       </c>
       <c r="D12">
-        <v>4.663254873981439</v>
+        <v>5.813093540842788</v>
       </c>
       <c r="E12">
-        <v>6.967170453685928</v>
+        <v>9.272048839688434</v>
       </c>
       <c r="F12">
-        <v>24.18079162260795</v>
+        <v>18.04734567614466</v>
       </c>
       <c r="G12">
-        <v>2.050587340969797</v>
+        <v>21.83466280117873</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.329137053683962</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.859761427178155</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.44669048411998</v>
       </c>
       <c r="L12">
-        <v>6.6192398440934</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>14.70429827356802</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.28473268714083</v>
+        <v>6.442658021819923</v>
       </c>
       <c r="O12">
-        <v>18.16045886068656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.39823639215531</v>
+      </c>
+      <c r="P12">
+        <v>12.31281305277416</v>
+      </c>
+      <c r="Q12">
+        <v>13.12694454898259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.52635554025148</v>
+        <v>22.68260862639212</v>
       </c>
       <c r="C13">
-        <v>13.95710930008067</v>
+        <v>15.77788332832025</v>
       </c>
       <c r="D13">
-        <v>4.65796615617374</v>
+        <v>5.919084471012049</v>
       </c>
       <c r="E13">
-        <v>6.972649553349831</v>
+        <v>9.574266890847115</v>
       </c>
       <c r="F13">
-        <v>24.13427709510027</v>
+        <v>17.43918033163974</v>
       </c>
       <c r="G13">
-        <v>2.050925078243882</v>
+        <v>20.75547490099178</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.614827491185704</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.67560011113175</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.07276895793274</v>
       </c>
       <c r="L13">
-        <v>6.612613690082799</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>14.66559513866904</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.29611305165726</v>
+        <v>6.003524597251136</v>
       </c>
       <c r="O13">
-        <v>18.13558417972933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.72028440252708</v>
+      </c>
+      <c r="P13">
+        <v>12.47500982855788</v>
+      </c>
+      <c r="Q13">
+        <v>12.65798168659083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.29760479352193</v>
+        <v>22.32294425726686</v>
       </c>
       <c r="C14">
-        <v>13.87422037132401</v>
+        <v>16.0016448177213</v>
       </c>
       <c r="D14">
-        <v>4.640672714146415</v>
+        <v>5.963261723203472</v>
       </c>
       <c r="E14">
-        <v>6.990581997968532</v>
+        <v>9.88903335696318</v>
       </c>
       <c r="F14">
-        <v>23.98270231416518</v>
+        <v>16.93876371588637</v>
       </c>
       <c r="G14">
-        <v>2.052028474475511</v>
+        <v>19.89862938433684</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.546071004283749</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.546847274721415</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10.84757288495549</v>
       </c>
       <c r="L14">
-        <v>6.591052125879139</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>14.5387598442121</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.33329874795642</v>
+        <v>5.766399120696153</v>
       </c>
       <c r="O14">
-        <v>18.05482175819769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.18186062883533</v>
+      </c>
+      <c r="P14">
+        <v>12.59403364654359</v>
+      </c>
+      <c r="Q14">
+        <v>12.30788203172288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.15659718597431</v>
+        <v>22.16342035946061</v>
       </c>
       <c r="C15">
-        <v>13.82321869221693</v>
+        <v>16.01923930834032</v>
       </c>
       <c r="D15">
-        <v>4.63004501458595</v>
+        <v>5.959066987946527</v>
       </c>
       <c r="E15">
-        <v>7.001615162583021</v>
+        <v>9.971285507523543</v>
       </c>
       <c r="F15">
-        <v>23.889951896037</v>
+        <v>16.78520640596664</v>
       </c>
       <c r="G15">
-        <v>2.052705861762653</v>
+        <v>19.64827785772818</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.758496373041611</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.516407184078898</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10.80818447845405</v>
       </c>
       <c r="L15">
-        <v>6.577881940549797</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>14.46059543170464</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.35613140652514</v>
+        <v>5.71893930730845</v>
       </c>
       <c r="O15">
-        <v>18.00562868511518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.02380505457601</v>
+      </c>
+      <c r="P15">
+        <v>12.62288362932714</v>
+      </c>
+      <c r="Q15">
+        <v>12.21476268486063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.33481287361656</v>
+        <v>21.48073324482659</v>
       </c>
       <c r="C16">
-        <v>13.52745461996591</v>
+        <v>15.63742563042332</v>
       </c>
       <c r="D16">
-        <v>4.568615075845053</v>
+        <v>5.808768156015828</v>
       </c>
       <c r="E16">
-        <v>7.065589884925481</v>
+        <v>9.871803336262241</v>
       </c>
       <c r="F16">
-        <v>23.35995367767206</v>
+        <v>16.5146357113512</v>
       </c>
       <c r="G16">
-        <v>2.056611798029678</v>
+        <v>19.30815111649296</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.493165911348553</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.532136631092678</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10.95264438019207</v>
       </c>
       <c r="L16">
-        <v>6.502982564000676</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.00536665256635</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.48783008517641</v>
+        <v>5.722118189057978</v>
       </c>
       <c r="O16">
-        <v>17.7279629007437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.79754713544527</v>
+      </c>
+      <c r="P16">
+        <v>12.6110400956062</v>
+      </c>
+      <c r="Q16">
+        <v>12.16050757765159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.8183538280168</v>
+        <v>21.14655906753723</v>
       </c>
       <c r="C17">
-        <v>13.34292876745398</v>
+        <v>15.21525767140277</v>
       </c>
       <c r="D17">
-        <v>4.530469823995211</v>
+        <v>5.666697938163436</v>
       </c>
       <c r="E17">
-        <v>7.105500578894346</v>
+        <v>9.610560477885304</v>
       </c>
       <c r="F17">
-        <v>23.03626814826455</v>
+        <v>16.58391977725296</v>
       </c>
       <c r="G17">
-        <v>2.059030241162754</v>
+        <v>19.52356810760661</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.747199929652915</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.613690814983186</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.18027918342089</v>
       </c>
       <c r="L17">
-        <v>6.457555157141426</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>13.719549780246</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.5693913674865</v>
+        <v>5.837910016690467</v>
       </c>
       <c r="O17">
-        <v>17.56141362868609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.92012671570723</v>
+      </c>
+      <c r="P17">
+        <v>12.54057815296462</v>
+      </c>
+      <c r="Q17">
+        <v>12.30999300376477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.5167440259278</v>
+        <v>21.08547196353992</v>
       </c>
       <c r="C18">
-        <v>13.23567547648786</v>
+        <v>14.71984869015793</v>
       </c>
       <c r="D18">
-        <v>4.508364817431969</v>
+        <v>5.518006498165376</v>
       </c>
       <c r="E18">
-        <v>7.128699088470499</v>
+        <v>9.283757212858944</v>
       </c>
       <c r="F18">
-        <v>22.85066749305248</v>
+        <v>16.94741873807617</v>
       </c>
       <c r="G18">
-        <v>2.060429750050566</v>
+        <v>20.23209304736886</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.541275569452999</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.758560751404517</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.50959860832734</v>
       </c>
       <c r="L18">
-        <v>6.431621636734286</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>13.55273553483189</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.61658829986639</v>
+        <v>6.131567711490468</v>
       </c>
       <c r="O18">
-        <v>17.46701406567807</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.35792679129845</v>
+      </c>
+      <c r="P18">
+        <v>12.41792842582301</v>
+      </c>
+      <c r="Q18">
+        <v>12.64570020302807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.41383894653086</v>
+        <v>21.24987253588107</v>
       </c>
       <c r="C19">
-        <v>13.19917067336019</v>
+        <v>14.21610596641591</v>
       </c>
       <c r="D19">
-        <v>4.500852534600795</v>
+        <v>5.377873978403664</v>
       </c>
       <c r="E19">
-        <v>7.136595327395627</v>
+        <v>9.096922931418055</v>
       </c>
       <c r="F19">
-        <v>22.78792917194078</v>
+        <v>17.51031466679524</v>
       </c>
       <c r="G19">
-        <v>2.060905084419272</v>
+        <v>21.26701437822102</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.206337457813095</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.942303568874632</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.90734090665831</v>
       </c>
       <c r="L19">
-        <v>6.422874860360503</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>13.49583825468885</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.63261758684692</v>
+        <v>6.630791211570754</v>
       </c>
       <c r="O19">
-        <v>17.43529183570227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.00922321085484</v>
+      </c>
+      <c r="P19">
+        <v>12.27063975164936</v>
+      </c>
+      <c r="Q19">
+        <v>13.10135361161023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.87380269461515</v>
+        <v>22.02700532566676</v>
       </c>
       <c r="C20">
-        <v>13.36268800856144</v>
+        <v>13.72230691744049</v>
       </c>
       <c r="D20">
-        <v>4.534547610554009</v>
+        <v>5.2716863727034</v>
       </c>
       <c r="E20">
-        <v>7.101226849780392</v>
+        <v>9.289437954734463</v>
       </c>
       <c r="F20">
-        <v>23.07066652184874</v>
+        <v>18.59234049523151</v>
       </c>
       <c r="G20">
-        <v>2.058771922245556</v>
+        <v>23.13836766384892</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.275292991258595</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.228804966575016</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.48347455938897</v>
       </c>
       <c r="L20">
-        <v>6.46237087189609</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>13.7502256368505</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.56067959064056</v>
+        <v>7.609278522593928</v>
       </c>
       <c r="O20">
-        <v>17.57899874118477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.20503903965541</v>
+      </c>
+      <c r="P20">
+        <v>12.05034069084093</v>
+      </c>
+      <c r="Q20">
+        <v>13.87105385317504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.36497998884471</v>
+        <v>23.36699928109634</v>
       </c>
       <c r="C21">
-        <v>13.89861481695798</v>
+        <v>14.1959366345114</v>
       </c>
       <c r="D21">
-        <v>4.645759525613431</v>
+        <v>5.488299340528126</v>
       </c>
       <c r="E21">
-        <v>6.985304579335376</v>
+        <v>9.395526242354212</v>
       </c>
       <c r="F21">
-        <v>24.02720420497944</v>
+        <v>19.36367511282921</v>
       </c>
       <c r="G21">
-        <v>2.051704064162524</v>
+        <v>24.24492247723587</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.506416634910578</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.309567625439964</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.47559185774656</v>
       </c>
       <c r="L21">
-        <v>6.59737761009523</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>14.57611317302961</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.32236488665393</v>
+        <v>7.887940857735114</v>
       </c>
       <c r="O21">
-        <v>18.07848608394528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.91754045211922</v>
+      </c>
+      <c r="P21">
+        <v>11.96202752890982</v>
+      </c>
+      <c r="Q21">
+        <v>14.22198009504492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.29958719837996</v>
+        <v>24.18691322764135</v>
       </c>
       <c r="C22">
-        <v>14.23862492437331</v>
+        <v>14.52552202059897</v>
       </c>
       <c r="D22">
-        <v>4.716888899491208</v>
+        <v>5.63290558071368</v>
       </c>
       <c r="E22">
-        <v>6.911733542495983</v>
+        <v>9.443308239691506</v>
       </c>
       <c r="F22">
-        <v>24.65664953661556</v>
+        <v>19.82596266798301</v>
       </c>
       <c r="G22">
-        <v>2.047153887460368</v>
+        <v>24.89175662654874</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.649015490319054</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.35377226869509</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.45003270897072</v>
       </c>
       <c r="L22">
-        <v>6.68727349099196</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>15.09462084164959</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.16909660117942</v>
+        <v>8.019133613039941</v>
       </c>
       <c r="O22">
-        <v>18.41730111663182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.32102491203107</v>
+      </c>
+      <c r="P22">
+        <v>11.91607398364235</v>
+      </c>
+      <c r="Q22">
+        <v>14.4253368847171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.80439621150509</v>
+        <v>23.75278731427852</v>
       </c>
       <c r="C23">
-        <v>14.05810486054742</v>
+        <v>14.35059367322929</v>
       </c>
       <c r="D23">
-        <v>4.679071945517943</v>
+        <v>5.556216595661231</v>
       </c>
       <c r="E23">
-        <v>6.95079778472926</v>
+        <v>9.417847005862857</v>
       </c>
       <c r="F23">
-        <v>24.32034531339323</v>
+        <v>19.57930357287356</v>
       </c>
       <c r="G23">
-        <v>2.049576408655753</v>
+        <v>24.54671460149726</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.573174168287486</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.329760638437122</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.46279053789953</v>
       </c>
       <c r="L23">
-        <v>6.639145899986552</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>14.81981372650832</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.25067389124347</v>
+        <v>7.949365824195703</v>
       </c>
       <c r="O23">
-        <v>18.23533962215783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>14.10703548726455</v>
+      </c>
+      <c r="P23">
+        <v>11.94034308248843</v>
+      </c>
+      <c r="Q23">
+        <v>14.31618220548675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.84874887891883</v>
+        <v>22.03195931738964</v>
       </c>
       <c r="C24">
-        <v>13.3537584869334</v>
+        <v>13.66684939739257</v>
       </c>
       <c r="D24">
-        <v>4.532704586708757</v>
+        <v>5.255071816024786</v>
       </c>
       <c r="E24">
-        <v>7.103158213956666</v>
+        <v>9.320449075677386</v>
       </c>
       <c r="F24">
-        <v>23.05511347968629</v>
+        <v>18.64419089793272</v>
       </c>
       <c r="G24">
-        <v>2.058888679770869</v>
+        <v>23.23671576623644</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.279988072064756</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.247896901950664</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.53000000820221</v>
       </c>
       <c r="L24">
-        <v>6.460193115444017</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>13.73636485445774</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.56461723038106</v>
+        <v>7.679705036170328</v>
       </c>
       <c r="O24">
-        <v>17.57104430056987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.26702738508834</v>
+      </c>
+      <c r="P24">
+        <v>12.03781699030036</v>
+      </c>
+      <c r="Q24">
+        <v>13.91647962884589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.56473692930052</v>
+        <v>20.01051162885918</v>
       </c>
       <c r="C25">
-        <v>12.55149468438378</v>
+        <v>12.8857719467666</v>
       </c>
       <c r="D25">
-        <v>4.368582052505434</v>
+        <v>4.907914389376454</v>
       </c>
       <c r="E25">
-        <v>7.27678426957951</v>
+        <v>9.212905414752921</v>
       </c>
       <c r="F25">
-        <v>21.71301491836272</v>
+        <v>17.63814564643739</v>
       </c>
       <c r="G25">
-        <v>2.069261135015634</v>
+        <v>21.8230158111786</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.95043280954233</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.178169470838407</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.63961904920361</v>
       </c>
       <c r="L25">
-        <v>6.274673004414836</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>12.58780430760316</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.91419441141433</v>
+        <v>7.378037624569775</v>
       </c>
       <c r="O25">
-        <v>16.90784389062983</v>
+        <v>12.29987543187623</v>
+      </c>
+      <c r="P25">
+        <v>12.15428500764826</v>
+      </c>
+      <c r="Q25">
+        <v>13.51516940624388</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.37830058424904</v>
+        <v>18.18498695831051</v>
       </c>
       <c r="C2">
-        <v>12.27539852721682</v>
+        <v>12.39828666514084</v>
       </c>
       <c r="D2">
-        <v>4.633767005641331</v>
+        <v>4.696040178657026</v>
       </c>
       <c r="E2">
-        <v>9.131177605642762</v>
+        <v>9.013180635887466</v>
       </c>
       <c r="F2">
-        <v>16.90478819739586</v>
+        <v>16.63331827976033</v>
       </c>
       <c r="G2">
-        <v>20.7886833368745</v>
+        <v>19.63011853197479</v>
       </c>
       <c r="H2">
-        <v>1.6957194035007</v>
+        <v>1.696381601775365</v>
       </c>
       <c r="J2">
-        <v>8.141912781301249</v>
+        <v>8.683950645109183</v>
       </c>
       <c r="K2">
-        <v>12.74913587821878</v>
+        <v>12.48354263630011</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.29807379325579</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.209486909513195</v>
       </c>
       <c r="N2">
-        <v>7.147507526161808</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.53790020269728</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.24929748108693</v>
+        <v>7.198918577729945</v>
       </c>
       <c r="Q2">
-        <v>13.24566384869879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.4834158453428</v>
+      </c>
+      <c r="R2">
+        <v>12.28060114399574</v>
+      </c>
+      <c r="S2">
+        <v>13.04621639791712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.1816448410919</v>
+        <v>17.03256592146983</v>
       </c>
       <c r="C3">
-        <v>11.84117392689381</v>
+        <v>11.87533347311585</v>
       </c>
       <c r="D3">
-        <v>4.43687727100008</v>
+        <v>4.483265847459092</v>
       </c>
       <c r="E3">
-        <v>9.074013121727196</v>
+        <v>8.966009213449819</v>
       </c>
       <c r="F3">
-        <v>16.41533495629704</v>
+        <v>16.18522987980801</v>
       </c>
       <c r="G3">
-        <v>20.09603531541653</v>
+        <v>18.98898953860718</v>
       </c>
       <c r="H3">
-        <v>1.606968378054436</v>
+        <v>1.592480177139222</v>
       </c>
       <c r="J3">
-        <v>8.126270679376498</v>
+        <v>8.652421533063137</v>
       </c>
       <c r="K3">
-        <v>12.83982903996057</v>
+        <v>12.59070091303247</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.46244523892522</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.207276196836176</v>
       </c>
       <c r="N3">
-        <v>6.98653758690841</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>10.99225880533635</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.31924622971585</v>
+        <v>7.042670932204048</v>
       </c>
       <c r="Q3">
-        <v>13.07925898429431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.94505771496186</v>
+      </c>
+      <c r="R3">
+        <v>12.32703733879187</v>
+      </c>
+      <c r="S3">
+        <v>12.90701898534002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.40203803157278</v>
+        <v>16.28174123666056</v>
       </c>
       <c r="C4">
-        <v>11.56500238876818</v>
+        <v>11.54237226888658</v>
       </c>
       <c r="D4">
-        <v>4.310715256434417</v>
+        <v>4.346872896665163</v>
       </c>
       <c r="E4">
-        <v>9.037978384065964</v>
+        <v>8.936246419209063</v>
       </c>
       <c r="F4">
-        <v>16.11959354832284</v>
+        <v>15.9139392725819</v>
       </c>
       <c r="G4">
-        <v>19.67642337745757</v>
+        <v>18.60210949357812</v>
       </c>
       <c r="H4">
-        <v>1.724545689558596</v>
+        <v>1.701316816206681</v>
       </c>
       <c r="J4">
-        <v>8.120903476380452</v>
+        <v>8.635080098221131</v>
       </c>
       <c r="K4">
-        <v>12.90316623600128</v>
+        <v>12.66250761065075</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.56771613609342</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.231122223304946</v>
       </c>
       <c r="N4">
-        <v>6.885556739062992</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>10.64362224270387</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.36487130235989</v>
+        <v>6.944979014680325</v>
       </c>
       <c r="Q4">
-        <v>12.98506394072748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.60077696605601</v>
+      </c>
+      <c r="R4">
+        <v>12.35848456520286</v>
+      </c>
+      <c r="S4">
+        <v>12.82824716788319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.07303641829274</v>
+        <v>15.96488725611204</v>
       </c>
       <c r="C5">
-        <v>11.45015963957584</v>
+        <v>11.40385117362872</v>
       </c>
       <c r="D5">
-        <v>4.258014448978673</v>
+        <v>4.289888212053213</v>
       </c>
       <c r="E5">
-        <v>9.023050399790915</v>
+        <v>8.92390913410334</v>
       </c>
       <c r="F5">
-        <v>16.00044551260084</v>
+        <v>15.80448300299112</v>
       </c>
       <c r="G5">
-        <v>19.50710498118423</v>
+        <v>18.44635898693855</v>
       </c>
       <c r="H5">
-        <v>1.773489980470784</v>
+        <v>1.746631648089569</v>
       </c>
       <c r="J5">
-        <v>8.119756285731087</v>
+        <v>8.628513277025442</v>
       </c>
       <c r="K5">
-        <v>12.93083259072087</v>
+        <v>12.69323047581946</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.61171990576694</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.247058524310821</v>
       </c>
       <c r="N5">
-        <v>6.843898340717034</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>10.4982747988048</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.3841277357414</v>
+        <v>6.90476123505105</v>
       </c>
       <c r="Q5">
-        <v>12.94867524083435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.45716939711786</v>
+      </c>
+      <c r="R5">
+        <v>12.3720277417967</v>
+      </c>
+      <c r="S5">
+        <v>12.79781249966041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.01772245949701</v>
+        <v>15.91161603436249</v>
       </c>
       <c r="C6">
-        <v>11.43095436879521</v>
+        <v>11.38068323150984</v>
       </c>
       <c r="D6">
-        <v>4.24918686735626</v>
+        <v>4.280342553185702</v>
       </c>
       <c r="E6">
-        <v>9.02055667363631</v>
+        <v>8.921847712070585</v>
       </c>
       <c r="F6">
-        <v>15.98074863048367</v>
+        <v>15.78637798508709</v>
       </c>
       <c r="G6">
-        <v>19.47909848253876</v>
+        <v>18.42061780304494</v>
       </c>
       <c r="H6">
-        <v>1.781679764369999</v>
+        <v>1.754214630935067</v>
       </c>
       <c r="J6">
-        <v>8.119627849449758</v>
+        <v>8.627452835923195</v>
       </c>
       <c r="K6">
-        <v>12.93553672068325</v>
+        <v>12.69841880023929</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.61909379151585</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.25007589931838</v>
       </c>
       <c r="N6">
-        <v>6.836951273759648</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>10.47394693430039</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.38736509266962</v>
+        <v>6.898059510616614</v>
       </c>
       <c r="Q6">
-        <v>12.94275311084421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.43312811888809</v>
+      </c>
+      <c r="R6">
+        <v>12.374320276105</v>
+      </c>
+      <c r="S6">
+        <v>12.79285881934287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.39764680771479</v>
+        <v>16.27244148646792</v>
       </c>
       <c r="C7">
-        <v>11.56346275019222</v>
+        <v>11.5339922135431</v>
       </c>
       <c r="D7">
-        <v>4.310009680404884</v>
+        <v>4.34882556018836</v>
       </c>
       <c r="E7">
-        <v>9.037778056871664</v>
+        <v>8.936107407861172</v>
       </c>
       <c r="F7">
-        <v>16.11798091288818</v>
+        <v>15.89953146367866</v>
       </c>
       <c r="G7">
-        <v>19.67413276622606</v>
+        <v>18.69918433113561</v>
       </c>
       <c r="H7">
-        <v>1.725201579457828</v>
+        <v>1.702409437429436</v>
       </c>
       <c r="J7">
-        <v>8.120883828268159</v>
+        <v>8.595603176606225</v>
       </c>
       <c r="K7">
-        <v>12.90353192756418</v>
+        <v>12.65837226278562</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.56410357118635</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.228666281724575</v>
       </c>
       <c r="N7">
-        <v>6.884996932916793</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>10.64167508507886</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.36512832500968</v>
+        <v>6.944025939737357</v>
       </c>
       <c r="Q7">
-        <v>12.98456512322214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.59678525976605</v>
+      </c>
+      <c r="R7">
+        <v>12.35979096947757</v>
+      </c>
+      <c r="S7">
+        <v>12.81833376687732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.97498600566806</v>
+        <v>17.78104861922</v>
       </c>
       <c r="C8">
-        <v>12.12771879906927</v>
+        <v>12.19972305060442</v>
       </c>
       <c r="D8">
-        <v>4.566993637919198</v>
+        <v>4.632520324975677</v>
       </c>
       <c r="E8">
-        <v>9.111656362440696</v>
+        <v>8.997261531237724</v>
       </c>
       <c r="F8">
-        <v>16.73513026780626</v>
+        <v>16.43655250591986</v>
       </c>
       <c r="G8">
-        <v>20.54882719621741</v>
+        <v>19.72460191570692</v>
       </c>
       <c r="H8">
-        <v>1.634315345348271</v>
+        <v>1.638106318219542</v>
       </c>
       <c r="J8">
-        <v>8.135624881387656</v>
+        <v>8.544115213295985</v>
       </c>
       <c r="K8">
-        <v>12.77877717528497</v>
+        <v>12.50419123344313</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.34122351549037</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.192833451942586</v>
       </c>
       <c r="N8">
-        <v>7.092468473391003</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>11.35266896418856</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.27285466150431</v>
+        <v>7.144141594485588</v>
       </c>
       <c r="Q8">
-        <v>13.18662757445182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.29421843316509</v>
+      </c>
+      <c r="R8">
+        <v>12.30003828313124</v>
+      </c>
+      <c r="S8">
+        <v>12.96573876467112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.71367274829292</v>
+        <v>20.41597463972326</v>
       </c>
       <c r="C9">
-        <v>13.15452340121848</v>
+        <v>13.42971739033863</v>
       </c>
       <c r="D9">
-        <v>5.027786223527383</v>
+        <v>5.131673354139263</v>
       </c>
       <c r="E9">
-        <v>9.249500586148704</v>
+        <v>9.111072818230911</v>
       </c>
       <c r="F9">
-        <v>17.97625380545266</v>
+        <v>17.56237203449043</v>
       </c>
       <c r="G9">
-        <v>22.29872233175111</v>
+        <v>21.41053037071768</v>
       </c>
       <c r="H9">
-        <v>2.063277767691776</v>
+        <v>2.034543132120794</v>
       </c>
       <c r="J9">
-        <v>8.199252640150849</v>
+        <v>8.600622780438892</v>
       </c>
       <c r="K9">
-        <v>12.59801457496533</v>
+        <v>12.26840749259858</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.95348169236425</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.334740259918532</v>
       </c>
       <c r="N9">
-        <v>7.481024570443612</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>12.63361499430783</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.11358377092589</v>
+        <v>7.52275611738925</v>
       </c>
       <c r="Q9">
-        <v>13.64633129468853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.55549657580015</v>
+      </c>
+      <c r="R9">
+        <v>12.20256342225318</v>
+      </c>
+      <c r="S9">
+        <v>13.3435197875426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.47780328796847</v>
+        <v>22.09270538025431</v>
       </c>
       <c r="C10">
-        <v>13.91545366372683</v>
+        <v>14.28946630626297</v>
       </c>
       <c r="D10">
-        <v>5.354806286138661</v>
+        <v>5.496503592470332</v>
       </c>
       <c r="E10">
-        <v>9.306320103132983</v>
+        <v>9.156501369313453</v>
       </c>
       <c r="F10">
-        <v>18.81751316906271</v>
+        <v>18.25805368622518</v>
       </c>
       <c r="G10">
-        <v>23.44741205156136</v>
+        <v>23.01621879502022</v>
       </c>
       <c r="H10">
-        <v>2.351685741146743</v>
+        <v>2.298651915355884</v>
       </c>
       <c r="J10">
-        <v>8.24298100544404</v>
+        <v>8.416604482971184</v>
       </c>
       <c r="K10">
-        <v>12.45022575936304</v>
+        <v>12.05259183614036</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.63848158716168</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.491145000111869</v>
       </c>
       <c r="N10">
-        <v>7.659880599202334</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>13.40794913306996</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.02839600954719</v>
+        <v>7.692741709491126</v>
       </c>
       <c r="Q10">
-        <v>13.95856989570775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.3066526142171</v>
+      </c>
+      <c r="R10">
+        <v>12.17253355615988</v>
+      </c>
+      <c r="S10">
+        <v>13.54450357111174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.94397492039825</v>
+        <v>22.51858317693937</v>
       </c>
       <c r="C11">
-        <v>14.77297614606463</v>
+        <v>15.08966374268276</v>
       </c>
       <c r="D11">
-        <v>5.638099197878602</v>
+        <v>5.810247153578388</v>
       </c>
       <c r="E11">
-        <v>9.159469619502623</v>
+        <v>9.042542449179253</v>
       </c>
       <c r="F11">
-        <v>18.50380158523958</v>
+        <v>17.82233896472136</v>
       </c>
       <c r="G11">
-        <v>22.71636854149362</v>
+        <v>23.41049150499137</v>
       </c>
       <c r="H11">
-        <v>3.136660096981352</v>
+        <v>3.089509024978523</v>
       </c>
       <c r="J11">
-        <v>8.04355506330301</v>
+        <v>7.824242225638687</v>
       </c>
       <c r="K11">
-        <v>11.88890178690199</v>
+        <v>11.4899379716933</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.20918591383303</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.134763332657046</v>
       </c>
       <c r="N11">
-        <v>6.978217842172752</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>12.95246210254472</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.16376353302554</v>
+        <v>6.991879287748793</v>
       </c>
       <c r="Q11">
-        <v>13.5508135371515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.83551052296438</v>
+      </c>
+      <c r="R11">
+        <v>12.34989754310313</v>
+      </c>
+      <c r="S11">
+        <v>13.04816985626035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.97774658931088</v>
+        <v>22.54987437400927</v>
       </c>
       <c r="C12">
-        <v>15.35803990343766</v>
+        <v>15.62051632026035</v>
       </c>
       <c r="D12">
-        <v>5.813093540842788</v>
+        <v>5.995109555659422</v>
       </c>
       <c r="E12">
-        <v>9.272048839688434</v>
+        <v>9.177384313434278</v>
       </c>
       <c r="F12">
-        <v>18.04734567614466</v>
+        <v>17.33456787329815</v>
       </c>
       <c r="G12">
-        <v>21.83466280117873</v>
+        <v>23.0899618170983</v>
       </c>
       <c r="H12">
-        <v>4.329137053683962</v>
+        <v>4.294111301132765</v>
       </c>
       <c r="J12">
-        <v>7.859761427178155</v>
+        <v>7.510898034829591</v>
       </c>
       <c r="K12">
-        <v>11.44669048411998</v>
+        <v>11.08296687736744</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.94092838036182</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.801525472952709</v>
       </c>
       <c r="N12">
-        <v>6.442658021819923</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>12.39823639215531</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.31281305277416</v>
+        <v>6.441953618291632</v>
       </c>
       <c r="Q12">
-        <v>13.12694454898259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.27930111515035</v>
+      </c>
+      <c r="R12">
+        <v>12.51677363558869</v>
+      </c>
+      <c r="S12">
+        <v>12.60723218141815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.68260862639212</v>
+        <v>22.29096441170051</v>
       </c>
       <c r="C13">
-        <v>15.77788332832025</v>
+        <v>16.0021772318077</v>
       </c>
       <c r="D13">
-        <v>5.919084471012049</v>
+        <v>6.089341366944041</v>
       </c>
       <c r="E13">
-        <v>9.574266890847115</v>
+        <v>9.500241568380705</v>
       </c>
       <c r="F13">
-        <v>17.43918033163974</v>
+        <v>16.79235694188277</v>
       </c>
       <c r="G13">
-        <v>20.75547490099178</v>
+        <v>21.96114310906333</v>
       </c>
       <c r="H13">
-        <v>5.614827491185704</v>
+        <v>5.589970605116993</v>
       </c>
       <c r="J13">
-        <v>7.67560011113175</v>
+        <v>7.430038495215882</v>
       </c>
       <c r="K13">
-        <v>11.07276895793274</v>
+        <v>10.78005666682298</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.769788318731662</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.481086472066239</v>
       </c>
       <c r="N13">
-        <v>6.003524597251136</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>11.72028440252708</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.47500982855788</v>
+        <v>5.99283377486734</v>
       </c>
       <c r="Q13">
-        <v>12.65798168659083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.61377991063204</v>
+      </c>
+      <c r="R13">
+        <v>12.67225559492577</v>
+      </c>
+      <c r="S13">
+        <v>12.19753320838938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.32294425726686</v>
+        <v>21.97429850609911</v>
       </c>
       <c r="C14">
-        <v>16.0016448177213</v>
+        <v>16.20637264940369</v>
       </c>
       <c r="D14">
-        <v>5.963261723203472</v>
+        <v>6.115357725355956</v>
       </c>
       <c r="E14">
-        <v>9.88903335696318</v>
+        <v>9.830173739493192</v>
       </c>
       <c r="F14">
-        <v>16.93876371588637</v>
+        <v>16.38130908853221</v>
       </c>
       <c r="G14">
-        <v>19.89862938433684</v>
+        <v>20.79997480024793</v>
       </c>
       <c r="H14">
-        <v>6.546071004283749</v>
+        <v>6.527012133750927</v>
       </c>
       <c r="J14">
-        <v>7.546847274721415</v>
+        <v>7.464747647500429</v>
       </c>
       <c r="K14">
-        <v>10.84757288495549</v>
+        <v>10.61622511567098</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.688827677792732</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.268614780583795</v>
       </c>
       <c r="N14">
-        <v>5.766399120696153</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>11.18186062883533</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.59403364654359</v>
+        <v>5.751232474092454</v>
       </c>
       <c r="Q14">
-        <v>12.30788203172288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.09034682724217</v>
+      </c>
+      <c r="R14">
+        <v>12.77463129847888</v>
+      </c>
+      <c r="S14">
+        <v>11.92165140270956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.16342035946061</v>
+        <v>21.83299269586401</v>
       </c>
       <c r="C15">
-        <v>16.01923930834032</v>
+        <v>16.22243649528545</v>
       </c>
       <c r="D15">
-        <v>5.959066987946527</v>
+        <v>6.102451092460228</v>
       </c>
       <c r="E15">
-        <v>9.971285507523543</v>
+        <v>9.91750146936093</v>
       </c>
       <c r="F15">
-        <v>16.78520640596664</v>
+        <v>16.26796188865651</v>
       </c>
       <c r="G15">
-        <v>19.64827785772818</v>
+        <v>20.3599615562467</v>
       </c>
       <c r="H15">
-        <v>6.758496373041611</v>
+        <v>6.741079493943795</v>
       </c>
       <c r="J15">
-        <v>7.516407184078898</v>
+        <v>7.513442058568486</v>
       </c>
       <c r="K15">
-        <v>10.80818447845405</v>
+        <v>10.59639080116848</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.684649117453436</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.222240034388577</v>
       </c>
       <c r="N15">
-        <v>5.71893930730845</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>11.02380505457601</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.62288362932714</v>
+        <v>5.703824636265989</v>
       </c>
       <c r="Q15">
-        <v>12.21476268486063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.9386035849298</v>
+      </c>
+      <c r="R15">
+        <v>12.79446631248922</v>
+      </c>
+      <c r="S15">
+        <v>11.860342693856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.48073324482659</v>
+        <v>21.2165204221347</v>
       </c>
       <c r="C16">
-        <v>15.63742563042332</v>
+        <v>15.8631946997193</v>
       </c>
       <c r="D16">
-        <v>5.808768156015828</v>
+        <v>5.916200061610243</v>
       </c>
       <c r="E16">
-        <v>9.871803336262241</v>
+        <v>9.83042175721773</v>
       </c>
       <c r="F16">
-        <v>16.5146357113512</v>
+        <v>16.15055521566028</v>
       </c>
       <c r="G16">
-        <v>19.30815111649296</v>
+        <v>19.06821313200287</v>
       </c>
       <c r="H16">
-        <v>6.493165911348553</v>
+        <v>6.480040671570496</v>
       </c>
       <c r="J16">
-        <v>7.532136631092678</v>
+        <v>7.872172658737616</v>
       </c>
       <c r="K16">
-        <v>10.95264438019207</v>
+        <v>10.78091570809011</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.833804920092957</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.269845586552207</v>
       </c>
       <c r="N16">
-        <v>5.722118189057978</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>10.79754713544527</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.6110400956062</v>
+        <v>5.716933448568225</v>
       </c>
       <c r="Q16">
-        <v>12.16050757765159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.7344963228103</v>
+      </c>
+      <c r="R16">
+        <v>12.74156548983666</v>
+      </c>
+      <c r="S16">
+        <v>11.91977993353852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.14655906753723</v>
+        <v>20.9038547992784</v>
       </c>
       <c r="C17">
-        <v>15.21525767140277</v>
+        <v>15.45853456645296</v>
       </c>
       <c r="D17">
-        <v>5.666697938163436</v>
+        <v>5.760392748095076</v>
       </c>
       <c r="E17">
-        <v>9.610560477885304</v>
+        <v>9.566362062185158</v>
       </c>
       <c r="F17">
-        <v>16.58391977725296</v>
+        <v>16.27128617542275</v>
       </c>
       <c r="G17">
-        <v>19.52356810760661</v>
+        <v>18.85079815368128</v>
       </c>
       <c r="H17">
-        <v>5.747199929652915</v>
+        <v>5.735060197689911</v>
       </c>
       <c r="J17">
-        <v>7.613690814983186</v>
+        <v>8.096626943086264</v>
       </c>
       <c r="K17">
-        <v>11.18027918342089</v>
+        <v>11.00554642660154</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.999144312125273</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.409619165259834</v>
       </c>
       <c r="N17">
-        <v>5.837910016690467</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>10.92012671570723</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.54057815296462</v>
+        <v>5.842016477141705</v>
       </c>
       <c r="Q17">
-        <v>12.30999300376477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.86362307279302</v>
+      </c>
+      <c r="R17">
+        <v>12.65293205444978</v>
+      </c>
+      <c r="S17">
+        <v>12.10394149541935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.08547196353992</v>
+        <v>20.83580588794851</v>
       </c>
       <c r="C18">
-        <v>14.71984869015793</v>
+        <v>14.98986658642686</v>
       </c>
       <c r="D18">
-        <v>5.518006498165376</v>
+        <v>5.610351226729515</v>
       </c>
       <c r="E18">
-        <v>9.283757212858944</v>
+        <v>9.222744094350906</v>
       </c>
       <c r="F18">
-        <v>16.94741873807617</v>
+        <v>16.63001318471109</v>
       </c>
       <c r="G18">
-        <v>20.23209304736886</v>
+        <v>19.33910836279632</v>
       </c>
       <c r="H18">
-        <v>4.541275569452999</v>
+        <v>4.526926851233866</v>
       </c>
       <c r="J18">
-        <v>7.758560751404517</v>
+        <v>8.287587514734948</v>
       </c>
       <c r="K18">
-        <v>11.50959860832734</v>
+        <v>11.30354999274394</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.20918470404538</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.645586722451599</v>
       </c>
       <c r="N18">
-        <v>6.131567711490468</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>11.35792679129845</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.41792842582301</v>
+        <v>6.145961587780548</v>
       </c>
       <c r="Q18">
-        <v>12.64570020302807</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.29899125821168</v>
+      </c>
+      <c r="R18">
+        <v>12.52423386649008</v>
+      </c>
+      <c r="S18">
+        <v>12.43099588892148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.24987253588107</v>
+        <v>20.97454711432384</v>
       </c>
       <c r="C19">
-        <v>14.21610596641591</v>
+        <v>14.52161140946837</v>
       </c>
       <c r="D19">
-        <v>5.377873978403664</v>
+        <v>5.476412649624461</v>
       </c>
       <c r="E19">
-        <v>9.096922931418055</v>
+        <v>9.006188154749308</v>
       </c>
       <c r="F19">
-        <v>17.51031466679524</v>
+        <v>17.1545377121365</v>
       </c>
       <c r="G19">
-        <v>21.26701437822102</v>
+        <v>20.2619915072437</v>
       </c>
       <c r="H19">
-        <v>3.206337457813095</v>
+        <v>3.184524313456108</v>
       </c>
       <c r="J19">
-        <v>7.942303568874632</v>
+        <v>8.464347448859856</v>
       </c>
       <c r="K19">
-        <v>11.90734090665831</v>
+        <v>11.65113879283528</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.44782735667855</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.949514410231076</v>
       </c>
       <c r="N19">
-        <v>6.630791211570754</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>12.00922321085484</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.27063975164936</v>
+        <v>6.655705682204049</v>
       </c>
       <c r="Q19">
-        <v>13.10135361161023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.94240793770693</v>
+      </c>
+      <c r="R19">
+        <v>12.37768936772568</v>
+      </c>
+      <c r="S19">
+        <v>12.85217824517874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.02700532566676</v>
+        <v>21.67844777254973</v>
       </c>
       <c r="C20">
-        <v>13.72230691744049</v>
+        <v>14.0911736275104</v>
       </c>
       <c r="D20">
-        <v>5.2716863727034</v>
+        <v>5.395339325698321</v>
       </c>
       <c r="E20">
-        <v>9.289437954734463</v>
+        <v>9.142479415707921</v>
       </c>
       <c r="F20">
-        <v>18.59234049523151</v>
+        <v>18.11199004977582</v>
       </c>
       <c r="G20">
-        <v>23.13836766384892</v>
+        <v>22.28537951447303</v>
       </c>
       <c r="H20">
-        <v>2.275292991258595</v>
+        <v>2.229891779009564</v>
       </c>
       <c r="J20">
-        <v>8.228804966575016</v>
+        <v>8.594908185936722</v>
       </c>
       <c r="K20">
-        <v>12.48347455938897</v>
+        <v>12.12082679430787</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.72840268640554</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.455612686053812</v>
       </c>
       <c r="N20">
-        <v>7.609278522593928</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>13.20503903965541</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.05034069084093</v>
+        <v>7.645519312353763</v>
       </c>
       <c r="Q20">
-        <v>13.87105385317504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.11595024017468</v>
+      </c>
+      <c r="R20">
+        <v>12.1747206688958</v>
+      </c>
+      <c r="S20">
+        <v>13.51871786141213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.36699928109634</v>
+        <v>22.87652976288039</v>
       </c>
       <c r="C21">
-        <v>14.1959366345114</v>
+        <v>14.54075198909432</v>
       </c>
       <c r="D21">
-        <v>5.488299340528126</v>
+        <v>5.684256382057415</v>
       </c>
       <c r="E21">
-        <v>9.395526242354212</v>
+        <v>9.235726218827233</v>
       </c>
       <c r="F21">
-        <v>19.36367511282921</v>
+        <v>18.5510182143526</v>
       </c>
       <c r="G21">
-        <v>24.24492247723587</v>
+        <v>25.28926312558479</v>
       </c>
       <c r="H21">
-        <v>2.506416634910578</v>
+        <v>2.43507536676958</v>
       </c>
       <c r="J21">
-        <v>8.309567625439964</v>
+        <v>7.840838115746385</v>
       </c>
       <c r="K21">
-        <v>12.47559185774656</v>
+        <v>11.95811222619016</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.49080196941764</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.601513937842448</v>
       </c>
       <c r="N21">
-        <v>7.887940857735114</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>13.91754045211922</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.96202752890982</v>
+        <v>7.91383793748267</v>
       </c>
       <c r="Q21">
-        <v>14.22198009504492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.77735006668325</v>
+      </c>
+      <c r="R21">
+        <v>12.15696817778317</v>
+      </c>
+      <c r="S21">
+        <v>13.60587022338112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.18691322764135</v>
+        <v>23.60485818936056</v>
       </c>
       <c r="C22">
-        <v>14.52552202059897</v>
+        <v>14.84554793021007</v>
       </c>
       <c r="D22">
-        <v>5.63290558071368</v>
+        <v>5.877155035804544</v>
       </c>
       <c r="E22">
-        <v>9.443308239691506</v>
+        <v>9.279669565227763</v>
       </c>
       <c r="F22">
-        <v>19.82596266798301</v>
+        <v>18.78759217035667</v>
       </c>
       <c r="G22">
-        <v>24.89175662654874</v>
+        <v>27.25546299718313</v>
       </c>
       <c r="H22">
-        <v>2.649015490319054</v>
+        <v>2.561349185133013</v>
       </c>
       <c r="J22">
-        <v>8.35377226869509</v>
+        <v>7.356913513730717</v>
       </c>
       <c r="K22">
-        <v>12.45003270897072</v>
+        <v>11.82478044709088</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.3212674607176</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.683004368929905</v>
       </c>
       <c r="N22">
-        <v>8.019133613039941</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>14.32102491203107</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.91607398364235</v>
+        <v>8.037778120922583</v>
       </c>
       <c r="Q22">
-        <v>14.4253368847171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.14659566995717</v>
+      </c>
+      <c r="R22">
+        <v>12.16125279220445</v>
+      </c>
+      <c r="S22">
+        <v>13.62642088348611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.75278731427852</v>
+        <v>23.22901326470551</v>
       </c>
       <c r="C23">
-        <v>14.35059367322929</v>
+        <v>14.69784424108629</v>
       </c>
       <c r="D23">
-        <v>5.556216595661231</v>
+        <v>5.768912204264747</v>
       </c>
       <c r="E23">
-        <v>9.417847005862857</v>
+        <v>9.255425770983594</v>
       </c>
       <c r="F23">
-        <v>19.57930357287356</v>
+        <v>18.69048552024533</v>
       </c>
       <c r="G23">
-        <v>24.54671460149726</v>
+        <v>25.99208930217003</v>
       </c>
       <c r="H23">
-        <v>2.573174168287486</v>
+        <v>2.494997117404199</v>
       </c>
       <c r="J23">
-        <v>8.329760638437122</v>
+        <v>7.687808431507523</v>
       </c>
       <c r="K23">
-        <v>12.46279053789953</v>
+        <v>11.90763940939266</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.4185138599281</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.649676258770234</v>
       </c>
       <c r="N23">
-        <v>7.949365824195703</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>14.10703548726455</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.94034308248843</v>
+        <v>7.972637146446796</v>
       </c>
       <c r="Q23">
-        <v>14.31618220548675</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.9551803960875</v>
+      </c>
+      <c r="R23">
+        <v>12.15457660511419</v>
+      </c>
+      <c r="S23">
+        <v>13.63847052263438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.03195931738964</v>
+        <v>21.68171003017049</v>
       </c>
       <c r="C24">
-        <v>13.66684939739257</v>
+        <v>14.0385966952698</v>
       </c>
       <c r="D24">
-        <v>5.255071816024786</v>
+        <v>5.378811971458982</v>
       </c>
       <c r="E24">
-        <v>9.320449075677386</v>
+        <v>9.169674441258481</v>
       </c>
       <c r="F24">
-        <v>18.64419089793272</v>
+        <v>18.16206540716517</v>
       </c>
       <c r="G24">
-        <v>23.23671576623644</v>
+        <v>22.3600456182929</v>
       </c>
       <c r="H24">
-        <v>2.279988072064756</v>
+        <v>2.234440519084692</v>
       </c>
       <c r="J24">
-        <v>8.247896901950664</v>
+        <v>8.618587307302755</v>
       </c>
       <c r="K24">
-        <v>12.53000000820221</v>
+        <v>12.16260261460597</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.75855509766326</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.488918101721111</v>
       </c>
       <c r="N24">
-        <v>7.679705036170328</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>13.26702738508834</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.03781699030036</v>
+        <v>7.717066247824585</v>
       </c>
       <c r="Q24">
-        <v>13.91647962884589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.17744725959371</v>
+      </c>
+      <c r="R24">
+        <v>12.16129583020708</v>
+      </c>
+      <c r="S24">
+        <v>13.56221126159301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.01051162885918</v>
+        <v>19.74566516345882</v>
       </c>
       <c r="C25">
-        <v>12.8857719467666</v>
+        <v>13.11672611244859</v>
       </c>
       <c r="D25">
-        <v>4.907914389376454</v>
+        <v>4.998393712897092</v>
       </c>
       <c r="E25">
-        <v>9.212905414752921</v>
+        <v>9.080748135145598</v>
       </c>
       <c r="F25">
-        <v>17.63814564643739</v>
+        <v>17.27285114317857</v>
       </c>
       <c r="G25">
-        <v>21.8230158111786</v>
+        <v>20.8231177235646</v>
       </c>
       <c r="H25">
-        <v>1.95043280954233</v>
+        <v>1.930881668280502</v>
       </c>
       <c r="J25">
-        <v>8.178169470838407</v>
+        <v>8.637652972114642</v>
       </c>
       <c r="K25">
-        <v>12.63961904920361</v>
+        <v>12.33291870426042</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.05962507688876</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.279851932411971</v>
       </c>
       <c r="N25">
-        <v>7.378037624569775</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>12.29987543187623</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.15428500764826</v>
+        <v>7.422668091463193</v>
       </c>
       <c r="Q25">
-        <v>13.51516940624388</v>
+        <v>12.2297193540566</v>
+      </c>
+      <c r="R25">
+        <v>12.2244404552899</v>
+      </c>
+      <c r="S25">
+        <v>13.24849069145417</v>
       </c>
     </row>
   </sheetData>
